--- a/backend/outputs/Course_Outlines.xlsx
+++ b/backend/outputs/Course_Outlines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ15"/>
+  <dimension ref="A1:BU25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,14 +491,14 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Corequisite</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>GER Category</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Corequisite</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Course Description</t>
@@ -521,14 +521,14 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Attendance Policy</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Project / Assignment Details</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Attendance Policy</t>
-        </is>
-      </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Course Material</t>
@@ -691,7 +691,112 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Assessment Details</t>
+          <t>Session 31</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Session 32</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Session 33</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Session 34</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Session 35</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Session 36</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Session 37</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Session 38</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Session 39</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Session 40</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Session 41</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Session 42</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Session 43</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Session 44</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Session 45</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Session 46</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Session 47</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Session 48</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Session 49</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Session 50</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Session 51</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Session 52</t>
         </is>
       </c>
     </row>
@@ -751,14 +856,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Corequisite Not Applicable</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>GER Category: Mathematical and Physical Teaching Pedagogy P/NP Course: Can not be taken as P/NP</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Corequisite Not Applicable</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Course Description This is an introductory course on Topology for interested undergraduates. The course assumes no background in Topology or Analysis but requires an interest in the subject together with some preparation in Linear Algebra and Elementary Real Analysis. The course is application oriented and motivates the study of Point-Set Topology using applications to graph theory, economics and data analysis. The course develops the elementary ideas of Continuity, Neighbourhood and Topology (with examples of Graphs and subsets of the plane) Topological Spaces, Continuous Functions and Subspaces (with applications to Market Economy). The course concludes with an introduction to Simplical Complexes and some applications and also introduces Simplicial Homology and Simplicial Maps (with applications to Social Choice in Economics and Data Analysis).</t>
@@ -781,12 +886,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>Class participation (Including attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>Sample Projects include: Topology of the Internet Social Choice, Sustainability and Topology Counterexamples and Topology Each group will research an interdisciplinary application of the material and make a written submission (for 10% of the grade ) and an oral presentation (for 5% of the grade) at the end of the course. There will be points for Class Participation (5% of the course grade). Assignments will be given regularly and count for 15% of the course grade based on the material covered in the class. Each Assignment will usually be a working out of some problems/unanswered questions from the textbook but might involve more referencing depending on the topic. Course Material Text Book(s) Topology Illustrated Volume I, Peter Saviliev, 1st Edition, Independent, ISBN: 979- 8339106746, Year: 2024,</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Class participation (Including attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -981,6 +1086,27 @@
         </is>
       </c>
       <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1036,12 +1162,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Corequisite Not Applicable</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>GER Category: Mathematical and Physical Teaching Pedagogy P/NP Course: Can not be taken as P/NP</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Corequisite Not Applicable</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -1058,12 +1184,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>Class participation (Including attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>and an application of the material studied in the project Expectation From For your project collaborate with your group and communicate with the instructor. Students Sample Projects include: Topology of the Internet Social Choice, Sustainability and Topology in the class. Each Assignment will usually be a working out of some problems/unanswered questions from the textbook but might involve more referencing depending on the topic.</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Class participation (Including attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1266,6 +1392,27 @@
         </is>
       </c>
       <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,14 +1472,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>Corequisite Not Applicable</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>GER Category: Mathematical and Physical Teaching</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Corequisite Not Applicable</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Course Description This is an introductory course on Topology for interested undergraduates. The course assumes no background in Topology or Analysis but requires an interest in the subject together with some preparation in Linear Algebra and Elementary Real Analysis.</t>
@@ -1355,12 +1502,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>Assignment will usually be a working out of some problems/unanswered questions</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>attendance) - 5% Attendance Policy As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1563,6 +1710,27 @@
         </is>
       </c>
       <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1622,14 +1790,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Mathematical and Physical Teaching</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Course Description This is an introductory</t>
@@ -1652,12 +1820,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>Attendance Policy As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>Assignment will usually be a working out of some problems/unanswered questions</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Attendance Policy As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1860,6 +2028,27 @@
         </is>
       </c>
       <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1911,12 +2100,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>Mathematical and Physical Teaching Pedagogy P/NP</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1931,12 +2120,12 @@
           <t>Assessment/Evaluation Mid-Semester Examination: Mid-Semester Examination - 25% End Semester Examination: End-Semester Examination - 25% Other Components: Worksheet - 15% Project - 15% Class participation (Including attendance) - 5% Assignments - 15% Assignments will be given regularly and count for 15% of the course grade based on the material covered in the class. Each Assignment will usually be a working out of some problems/unanswered questions from the textbook but might involve more referencing depending on the topic.</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Attendance Policy As per Ahmedabad University Policy. Project / Assignment In-class groupwork Worksheet sessions will count for 15% of the course grade. Details There will be a Group Project counting for 15% of the course grade. Sample Projects include: Topology of the Internet Social Choice, Sustainability and Topology Counterexamples and Topology Each group will research an interdisciplinary application of the material and make a written submission (for 10% of the grade ) and an oral presentation (for 5% of the grade) at the end of the course. There will be points for Class Participation (5% of the course grade).</t>
         </is>
       </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>Course Material Text Book(s) Topology Illustrated Volume I, Peter Saviliev, 1st Edition, Independent, ISBN: 979- 8339106746, Year: 2024,</t>
@@ -2137,6 +2326,27 @@
         </is>
       </c>
       <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2192,12 +2402,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>Not Applicable Teaching Pedagogy P/NP</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2212,12 +2422,12 @@
           <t>Assessment/Evaluation Mid-Semester Examination: Mid Sem Examiniation - 30% End Semester Examination: Final exam - 40% Other Components: Quiz - 30%</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Attendance Policy As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation Project / Assignment Quizzes (2): 30% Details Mid semester examination: 30% End semester examination: 40% Make-up evaluation is NOT allowed for any component.</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>Course Material Text Book(s) Computer Networks: A Systems Approach, Peterson and Davie, Fifth Edition, MK, Other Course Material Unix Network Programming, Vol. 1: The Sockets Networking API, Stevens, Fenner and Rudoff, 3rd edition, Addison-Wesley Professional, 2003 ,</t>
@@ -2457,6 +2667,27 @@
         </is>
       </c>
       <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2512,14 +2743,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>Mathematical and Physical Teaching Pedagogy P/NP Course: Can not be taken as P/NP</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>This is an introductory course on Topology for interested undergraduates. The course assumes no background in Topology or Analysis but requires an interest in the subject together with some preparation in Linear Algebra and Elementary Real Analysis. The course is application oriented and motivates the study of Point-Set Topology using applications to graph theory, economics and data analysis. The course develops the elementary ideas of Continuity, Neighbourhood and Topology (with examples of Graphs and subsets of the plane) Topological Spaces, Continuous Functions and Subspaces (with applications to Market Economy). The course concludes with an introduction to Simplical Complexes and some applications and also introduces Simplicial Homology and Simplicial Maps (with applications to Social Choice in Economics and Data Analysis).</t>
@@ -2542,12 +2773,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>Topology of the Internet Social Choice, Sustainability and Topology Counterexamples and Topology Each group will research an interdisciplinary application of the material and make a written submission (for 10% of the grade ) and an oral presentation (for 5% of the grade) at the end of the course. There will be points for Class Participation (5% of the course grade). Assignments will be given regularly and count for 15% of the course grade based on the material covered in the class. Each Assignment will usually be a working out of some problems/unanswered questions from the textbook but might involve more referencing depending on the topic. Course Material Text Book(s) Topology Illustrated Volume I, Peter Saviliev, 1st Edition, Independent, ISBN: 979- 8339106746, Year: 2024,</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -2741,11 +2972,28 @@
           <t>TOPIC TITLE: End-Semester</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>Mid-Sem: End-Sem: End-Sem: Other Components: Worksheet - 15%</t>
-        </is>
-      </c>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2801,12 +3049,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>Not Applicable Teaching Pedagogy P/NP Course: Can not be taken as P/NP Enable:NO</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -2821,12 +3069,12 @@
           <t>/Evaluation Mid-Semester Examination: Mid Sem Examiniation - 30% End Semester Examination: Final exam - 40% Other Components: Quiz - 30%</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation Project / Assignment Quizzes (2): 30% Details Mid semester examination: 30% End semester examination: 40% Make-up evaluation is NOT allowed for any component.</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
@@ -2970,6 +3218,27 @@
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3025,12 +3294,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>Not Applicable Teaching Pedagogy P/NP Course: Can not be taken as P/NP Enable:NO</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -3045,12 +3314,12 @@
           <t>/Evaluation Mid-Semester Examination: Mid Sem Examiniation - 30% End Semester Examination: Final exam - 40% Other Components: Quiz - 30%</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation Project / Assignment Quizzes (2): 30% Details Mid semester examination: 30% End semester examination: 40% Make-up evaluation is NOT allowed for any component.</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
@@ -3194,6 +3463,27 @@
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3249,14 +3539,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Not Applicable Teaching Pedagogy</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>This is a first</t>
@@ -3277,12 +3567,12 @@
           <t>Mid-</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>As per Ahmedabad University Policy. 80% attendance is compulsory for</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>Text Book(s):
@@ -3400,6 +3690,27 @@
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3455,14 +3766,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>Mathematical and Physical Teaching Pedagogy</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>This is an introductory</t>
@@ -3483,12 +3794,12 @@
           <t>Mid-</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>As per Ahmedabad University Policy. Project / Assignment In-class groupwork Worksheet sessions will count for 15% of the</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>Text Book(s):
@@ -3629,6 +3940,27 @@
       <c r="AX12" t="inlineStr"/>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3684,14 +4016,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>Not Applicable Teaching Pedagogy P/NP Course: Can not be taken as P/NP Enable:NO</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>This is a first course on computer networks.The course will introduce the fundamentals of computer networking and a number of protocols. The course introduces the layered protocol architecture concept and discusses physical, data link, network, transport and application layers. It describes the functionalities of these layers as well as the main protocols pertaining to these layers. The course emphasizes the architecture and protocols used in the Internet. It also introduces wireless networks, cloud computing, Internet of Things, network security and software defined networking. The programming component will be covered in a companion laboratory course</t>
@@ -3714,12 +4046,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>Quizzes (2): 30%</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -3841,6 +4173,27 @@
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3896,14 +4249,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>Mathematical and Physical Teaching Pedagogy P/NP Course: Can not be taken as P/NP Sciences Enable:YES</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>This is an introductory course on Topology for interested undergraduates. The course assumes no background in Topology or Analysis but requires an interest in the subject together with some preparation in Linear Algebra and Elementary Real Analysis. The course is application oriented and motivates the study of Point-Set Topology using applications to graph theory, economics and data analysis. The course develops the elementary ideas of Continuity, Neighbourhood and Topology (with examples of Graphs and subsets of the plane) Topological Spaces, Continuous Functions and Subspaces (with applications to Market Economy). The course concludes with an introduction to Simplical Complexes and some applications and also introduces Simplicial Homology and Simplicial Maps (with applications to Social Choice in Economics and Data Analysis).</t>
@@ -3926,12 +4279,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>In-class groupwork Worksheet sessions will count for 15% of the course grade.</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -4074,6 +4427,27 @@
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4129,14 +4503,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Not Applicable</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
@@ -4159,12 +4533,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>As per Ahmedabad University Policy.</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -4272,6 +4646,2609 @@
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CSE330 Computer Networks</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP Enable:NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Thu 05-01-26 to 19-04-26 02:30 pm to 04:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CSC100 Introduction to Computer Programming OR CSE100 Fundamentals of Computer Programming OR ENR106 Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Not Applicable Teaching Pedagogy P/NP Course: Can not be taken as P/NP Enable:NO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>This is a first course on computer networks.The course will introduce the fundamentals of computer networking and a number of protocols. The course introduces the layered protocol architecture concept and discusses physical, data link, network, transport and application layers. It describes the functionalities of these layers as well as the main protocols pertaining to these layers. The course emphasizes the architecture and protocols used in the Internet. It also introduces wireless networks, cloud computing, Internet of Things, network security and software defined networking. The programming component will be covered in a companion laboratory course</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Knowledge of how computer networks are designed and operated Knowledge of the architecture of the Internet and its protocols</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>After studying this course, the students will be able to understand the design issues of computer networks and appreciate layered architecture and protocol design use appropriate tools for designing and implementing networked systems design network applications</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Mid Sem Examiniation - 30% End Semester Examination: Final exam - 40% Other Components: Quiz - 30%</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Quizzes (2): 30%</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Computer Networks: A Systems Approach, Peterson and Davie, Fifth Edition, MK,
+Other Course Material:
+Unix Network Programming, Vol. 1: The Sockets Networking API, Stevens, Fenner and Rudoff, 3rd edition, Addison-Wesley Professional, 2003 ,</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction, C review
+READINGS, CASES, ETC.: 1.1-1.2</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Network architecture, Sockets
+READINGS, CASES, ETC.: 1.3-1.4</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Performance, Multimedia data
+READINGS, CASES, ETC.: 1.5, Chap 7</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical layer, bit encoding
+READINGS, CASES, ETC.: 2.1-2.2</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Framing, error detection
+READINGS, CASES, ETC.: 2.3-2.4</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Reliable transmission
+READINGS, CASES, ETC.: 2.5</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Ethernet
+READINGS, CASES, ETC.: 2.6</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Wi-Fi, Bluetooth, Cellular networks
+READINGS, CASES, ETC.: 2.7</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Quiz, Cloud computing, Internet of Things
+READINGS, CASES, ETC.: Page 57, 150</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Switching
+READINGS, CASES, ETC.: 3.1</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Switching
+READINGS, CASES, ETC.: 3.1</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: IP
+READINGS, CASES, ETC.: 3.2.1-3.2.5</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Internetworking
+READINGS, CASES, ETC.: 3.2.6-3.2.9, 9.3.1</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Mid-term exam</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Routing, distance vector routing
+READINGS, CASES, ETC.: 3.3.1-3.3.2</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Link state routing, AODV, DSR, BATMAN
+READINGS, CASES, ETC.: 3.3.3-3.3.4</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CSE330 Computer Networks</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP Enable:NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Thu 05-01-26 to 19-04-26 02:30 pm to 04:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>CSC100 Introduction to Computer Programming OR CSE100 Fundamentals of Computer Programming OR ENR106 Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Not Applicable Teaching Pedagogy P/NP Course: Can not be taken as P/NP Enable:NO</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>This is a first course on computer networks.The course will introduce the fundamentals of computer networking and a number of protocols. The course introduces the layered protocol architecture concept and discusses physical, data link, network, transport and application layers. It describes the functionalities of these layers as well as the main protocols pertaining to these layers. The course emphasizes the architecture and protocols used in the Internet. It also introduces wireless networks, cloud computing, Internet of Things, network security and software defined networking. The programming component will be covered in a companion laboratory course</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Knowledge of how computer networks are designed and operated Knowledge of the architecture of the Internet and its protocols</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>After studying this course, the students will be able to understand the design issues of computer networks and appreciate layered architecture and protocol design use appropriate tools for designing and implementing networked systems design network applications</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Mid Sem Examiniation - 30% End Semester Examination: Final exam - 40% Other Components: Quiz - 30%</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy. 80% attendance is compulsory for course evaluation</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Quizzes (2): 30%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Computer Networks: A Systems Approach, Peterson and Davie, Fifth Edition, MK,
+Other Course Material:
+Unix Network Programming, Vol. 1: The Sockets Networking API, Stevens, Fenner and Rudoff, 3rd edition, Addison-Wesley Professional, 2003 ,</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction, C review
+READINGS, CASES, ETC.: 1.1-1.2</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Network architecture, Sockets
+READINGS, CASES, ETC.: 1.3-1.4</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Performance, Multimedia data
+READINGS, CASES, ETC.: 1.5, Chap 7</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical layer, bit encoding
+READINGS, CASES, ETC.: 2.1-2.2</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Framing, error detection
+READINGS, CASES, ETC.: 2.3-2.4</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Reliable transmission
+READINGS, CASES, ETC.: 2.5</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Ethernet
+READINGS, CASES, ETC.: 2.6</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Wi-Fi, Bluetooth, Cellular networks
+READINGS, CASES, ETC.: 2.7</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Quiz, Cloud computing, Internet of Things
+READINGS, CASES, ETC.: Page 57, 150</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Switching
+READINGS, CASES, ETC.: 3.1</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Switching
+READINGS, CASES, ETC.: 3.1</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: IP
+READINGS, CASES, ETC.: 3.2.1-3.2.5</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Internetworking
+READINGS, CASES, ETC.: 3.2.6-3.2.9, 9.3.1</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Mid-term exam</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Routing, distance vector routing
+READINGS, CASES, ETC.: 3.3.1-3.3.2</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Link state routing, AODV, DSR, BATMAN
+READINGS, CASES, ETC.: 3.3.3-3.3.4</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CSE250 Database Management Systems</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Susanta Tewari</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>susanta.tewari@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Section 1 02:30 pm to 04:00 pm Fri 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Thu 05-01-26 to 19-04-26 05:30 pm to 07:00 pm Tue 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Not Applicable &amp; ENR106 Introduction to Programming OR CSE100 Fundamentals of Computer Programming OR Basic knowledge of programming is required.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>GER, but not one of the above Teaching Pedagogy P/NP Course: Can not be taken as P/NP specified Categories Enable:NO</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>This is a core course which covers concepts of relational database management such as entity relationship approach, database system architecture, logical and physical database designing, transaction management, concurrency control and query optimization. It also covers database programming.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>The main objectives are : 1. To make students understand the importance of database design in software development. 2. To acquaint the students with the knowledge of basic and advanced concepts of relational database such as logical and physical components of database, transaction processing, query processing and database recovery. 3. To make students familiar with any RDBMS software and database programming.</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Upon the completion of this course, the student will be able to: 1. Use the basic and advanced concepts of the database management system to design the entity relationship model and relational database. 2. Process structured query and procedural query. 3. Understand the importance of transaction management and concurrency control during simultaneous execution of transactions.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Theory Examination - 20% End Semester Examination: Theory Examination - 35% Practical - 15% Other Components: Project - 20% Assignment - 10%</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Faculty will form groups of 2 to 3 students. Each group will be assigned a project with proper</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Database System Concepts, Avi Silberschatz, Henry F. Korth, S. Sudarshan, Seventh Edition, Tata McGraw-Hill,
+Reference Book(s):
+Concepts of Database Management System, Shefali Naik, First Edition, Pearson Education India, ISBN: 9789332537231, Year: 2014, An Introduction to Database Systems, C J Date, Eighth Edition, Pearson Education Inc., ISBN: 0321189566, Year: 2004, Database Systems-Design, Implementation and Management, Carlos Coronel and Peter Rob, Seventh Edition, Course Technology Inc, ISBN: 9781418835934, Year: 2006, Oracle PL/SQL Programming, NA, Sixth Edition, O'Reilly Media, Inc., ISBN: 9781449324452, Year: 2014,
+Other Course Material:
+https://www.youtube.com/@ShefaliTNaik, YouTube channel created by Professor Shefali Naik to demonstrate practical implementation of the concepts of Database Management System, QGIS, Python and Data Science. Subscribe this channel to view new videos. ,</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Purpose of database, How database is different from files, Overview of data models , Architecture of database management system
+READINGS, CASES, ETC.: Chapter-1, 2Text Book : Database System Concepts, Abraham Silberschatz, Henry Korth, S Sudarshan , Sixth Edition, Tata McGraw Hill
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Introduction to Database Management System
+TOPIC &amp; SUBTOPIC DETAILS: Relational database concepts, Relational Operators-Select, Project, Union, Difference, Product, Rename, Keys
+READINGS, CASES, ETC.: Chapter-2
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Writing Queries using Relational Algebra
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Demonstration, Writing SQL for given examples</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Creating Tables, Insert, Update, Delete
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Program Demos</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language – Select, Join Types, Aggregate Functions, Null Values, Special Operators
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching through Demos</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Basics of Database Programming
+TOPIC &amp; SUBTOPIC DETAILS: Structured Query Language-Nested Queries, Correlated Queries, Views
+READINGS, CASES, ETC.: Chapter-3
+ACTIVITIES: Teaching and Demo</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model-Entity, Entity set, Relationship set, Degree and cardinality of a relation, Strong and weak relationships,
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Logical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Entity Relationship Model- Relationship types, Recursive relationship, Entity participation, Composite, simple, multi valued and derived attributed
+READINGS, CASES, ETC.: Chapter-6
+ACTIVITIES: Teaching and Case Study</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Relational Database Design-First Normal Form, Functional Dependency, Full Functional Dependency, Second Normal Form
+READINGS, CASES, ETC.: Chapter-7
+ACTIVITIES: Examples for given Scenario</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Relational Database Design- Transitive Dependency, Third Normal Form, Design Issues, Denormalization
+READINGS, CASES, ETC.: Chapter-7
+ACTIVITIES: Example for given Scenario</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Relational Database Design- Transitive Dependency, Third Normal Form, Design Issues, Denormalization
+READINGS, CASES, ETC.: Chapter-7
+ACTIVITIES: Example for given Scenario</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Database Programming in Detail
+TOPIC &amp; SUBTOPIC DETAILS: Advance SQL – Constraints, Programming using Procedural Blocks, Procedural Constructs- Loops, If statement
+READINGS, CASES, ETC.: Chapter-4
+ACTIVITIES: Teaching through Demo</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Database Programming in Detail
+TOPIC &amp; SUBTOPIC DETAILS: Advance SQL – Constraints, Programming using Procedural Blocks, Procedural Constructs- Loops, If statement
+READINGS, CASES, ETC.: Chapter-4
+ACTIVITIES: Teaching through Demo</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Database Programming in detail
+TOPIC &amp; SUBTOPIC DETAILS: Connecting database with application interface using ODBC and JDBC\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\n
+READINGS, CASES, ETC.: Chapter-4
+ACTIVITIES: Teaching through Demo</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Database Programming in detail
+TOPIC &amp; SUBTOPIC DETAILS: Connecting database with application interface using ODBC and JDBC\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\\n
+READINGS, CASES, ETC.: Chapter-4
+ACTIVITIES: Teaching through Demo</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Indexing - Dense and Sparse Index, Cluster and Noncluster Index, Primary and Secondary Index, B+ Tree Index
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Hashing - Static and Dynamic Hashing, Extendable Dynamic Hashing
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Physical Database Designing
+TOPIC &amp; SUBTOPIC DETAILS: Hashing - Static and Dynamic Hashing, Extendable Dynamic Hashing
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Query Processing and Optimization
+TOPIC &amp; SUBTOPIC DETAILS: Query Processing-Query Parsing and Evaluation, Measurement of query cost
+READINGS, CASES, ETC.: Chapter-13
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Query Processing and Optimization
+TOPIC &amp; SUBTOPIC DETAILS: Query Processing-Selection using Indexes, Complex joins
+READINGS, CASES, ETC.: Chapter-13
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Query Processing and Optimization
+TOPIC &amp; SUBTOPIC DETAILS: Query Optimization-Evaluation Plan, Cost based optimization, equivalence rules
+READINGS, CASES, ETC.: Chapter-14
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Query Processing and Optimization
+TOPIC &amp; SUBTOPIC DETAILS: Query Optimization-Statistical information of cost estimation, Join minimization
+READINGS, CASES, ETC.: Chapter-14
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Transaction Processing and Concurrency Control
+TOPIC &amp; SUBTOPIC DETAILS: Transactions-Transaction Concept, States of a transaction, ACIDS properties of a transaction
+READINGS, CASES, ETC.: Chapter-15
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Transaction Processing and Concurrency Control
+TOPIC &amp; SUBTOPIC DETAILS: Transactions-Concurrent transactions, Implementation of atomicity, durability and serializability
+READINGS, CASES, ETC.: Chapter-15
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Transaction Processing and Concurrency Control and Introduction to NoSQL databases
+TOPIC &amp; SUBTOPIC DETAILS: Concurrency Control-Conflicting instructions, Problems during concurrent transactions, Concurrency control, Levels of consistency
+READINGS, CASES, ETC.: Chapter-16
+ACTIVITIES: Classroom Teaching</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 1
+TOPIC &amp; SUBTOPIC DETAILS: Create, Alter, Drop table
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 1
+TOPIC &amp; SUBTOPIC DETAILS: Create, Alter, Drop table
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 2
+TOPIC &amp; SUBTOPIC DETAILS: Insert, Delete, Update
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 2
+TOPIC &amp; SUBTOPIC DETAILS: Insert, Delete, Update
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 3
+TOPIC &amp; SUBTOPIC DETAILS: Select statement and its clauses
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 3
+TOPIC &amp; SUBTOPIC DETAILS: Select statement and its clauses
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 4
+TOPIC &amp; SUBTOPIC DETAILS: Types of constraints
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 4
+TOPIC &amp; SUBTOPIC DETAILS: Types of constraints
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 5
+TOPIC &amp; SUBTOPIC DETAILS: Types of Joins, Special operators
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 5
+TOPIC &amp; SUBTOPIC DETAILS: Types of Joins, Special operators
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 6
+TOPIC &amp; SUBTOPIC DETAILS: Nested Queries and Correlated queries
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 6
+TOPIC &amp; SUBTOPIC DETAILS: Nested Queries and Correlated queries
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 7
+TOPIC &amp; SUBTOPIC DETAILS: Built-in functions, Conditional statements, Loop constructs
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 7
+TOPIC &amp; SUBTOPIC DETAILS: Built-in functions, Conditional statements, Loop constructs
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 8
+TOPIC &amp; SUBTOPIC DETAILS: Writing PL/SQL Programs
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 8
+TOPIC &amp; SUBTOPIC DETAILS: Writing PL/SQL Programs
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 9
+TOPIC &amp; SUBTOPIC DETAILS: Creating Procedures
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 9
+TOPIC &amp; SUBTOPIC DETAILS: Creating Procedures
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 10
+TOPIC &amp; SUBTOPIC DETAILS: Creating Functions
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 10
+TOPIC &amp; SUBTOPIC DETAILS: Creating Functions
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 11
+TOPIC &amp; SUBTOPIC DETAILS: Writing Triggers
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 11
+TOPIC &amp; SUBTOPIC DETAILS: Writing Triggers
+ACTIVITIES: Demo and Lab Practice</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 12
+TOPIC &amp; SUBTOPIC DETAILS: Project Review
+ACTIVITIES: Project Discussion</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 12
+TOPIC &amp; SUBTOPIC DETAILS: Project Review
+ACTIVITIES: Project Discussion</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 13
+TOPIC &amp; SUBTOPIC DETAILS: Practical Examination
+ACTIVITIES: Evaluation</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Lab 13
+TOPIC &amp; SUBTOPIC DETAILS: Practical Examination
+ACTIVITIES: Evaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MAT374 Introduction to Topology</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Winter Semester 2026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ashwin Pande</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ashwin.pande@ahduni.edu.in</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Can not be taken as P/NP Sciences Enable:YES</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Section 1 04:00 pm to 05:30 pm Mon 05-01-26 to 19-04-26 04:00 pm to 05:30 pm Fri 05-01-26 to 19-04-26</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>MAT246 Linear Algebra OR MAT204 Linear Algebra OR ENR112 Linear Algebra Laboratory OR MAT248 Applied Linear Algebra OR MAT203 Differential Equations and Linear Algebra</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Mathematical and Physical Teaching Pedagogy P/NP Course: Can not be taken as P/NP Sciences Enable:YES</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>This is an introductory course on Topology for interested undergraduates. The course assumes no background in Topology or Analysis but requires an interest in the subject together with some preparation in Linear Algebra and Elementary Real Analysis. The course is application oriented and motivates the study of Point-Set Topology using applications to graph theory, economics and data analysis. The course develops the elementary ideas of Continuity, Neighbourhood and Topology (with examples of Graphs and subsets of the plane) Topological Spaces, Continuous Functions and Subspaces (with applications to Market Economy). The course concludes with an introduction to Simplical Complexes and some applications and also introduces Simplicial Homology and Simplicial Maps (with applications to Social Choice in Economics and Data Analysis).</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>The purpose of this course is to introduce the students to elementary point-set topology and its applications. The course will cover: Continuity, Neighbourhood and Topology Topological Spaces, Continuous Functions and Subspaces Simplicial Complexes, Applications of Simplicial Complexes, Simplicial Homology, Simplicial Maps and Applications</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>After completing this course, a student should be able to, Analyze and create proof-based solutions to simple problems on Elementary Continuity, Neighbourhood and Topology Analyze and create proof-based solutions to simple problems on Topological Spaces, Continuous Functions and Subspaces Analyze and create proof-based solutions to simple problems on Simplicial Complexes, Applications, Simplicial Homology and Applications</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Mid-Semester Examination: Mid-Semester Examination - 25% End Semester Examination: End-Semester Examination - 25% Other Components: Worksheet - 15% Project - 15% Class participation (Including attendance) - 5% Assignments - 15%</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>As per Ahmedabad University Policy.</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>In-class groupwork Worksheet sessions will count for 15% of the course grade.</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Text Book(s):
+Topology Illustrated Volume I, Peter Saviliev, 1st Edition, Independent, ISBN: 979- 8339106746, Year: 2024,</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Topology and Continuity
+TOPIC &amp; SUBTOPIC DETAILS: Accuracy &amp; Continuity
+READINGS, CASES, ETC.: Ch. II Sec. (1.1, 1.2)</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Continuity on subsets &amp; Definition
+READINGS, CASES, ETC.: Ch. II Sec. (1.3, 1.4)</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Topology and Neighbourhoods
+TOPIC &amp; SUBTOPIC DETAILS: Bases &amp; Open Sets
+READINGS, CASES, ETC.: Ch. II Sec. (2.1, 2.2)</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Path-Connectedness &amp; Topologies from Bases
+READINGS, CASES, ETC.: Ch. II Sec. (2.3, 2.4)</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Bases from Topologies
+READINGS, CASES, ETC.: Ch. II Sec. (2.5)
+ACTIVITIES: Worksheet 1</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Topological Spaces
+TOPIC &amp; SUBTOPIC DETAILS: Open and Closed Sets &amp; Proximity
+READINGS, CASES, ETC.: Ch. II Sec. (3.1, 3.2)</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Interior-Frontier-Exterior
+READINGS, CASES, ETC.: Ch. II Sec. (3.3)</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Convergence of Sequences &amp; Metric Spaces
+READINGS, CASES, ETC.: Ch. II Sec. (3.4)</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Examples of Topological Spaces
+READINGS, CASES, ETC.: Ch. II Sec. (3.5, 3.6,3.7)
+ACTIVITIES: Worksheet 2</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Continuous Functions
+TOPIC &amp; SUBTOPIC DETAILS: Proximity &amp; Preimages
+READINGS, CASES, ETC.: Ch. II Sec. (4.1,4.2)</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Continuous Functions
+READINGS, CASES, ETC.: Ch. II Sec. (4.3)</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Path-Connectedness
+READINGS, CASES, ETC.: Ch. II Sec. (4.4)</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Market Economy Dynamics &amp; Maps
+READINGS, CASES, ETC.: Ch. II Sec. (4.7, 4.8)</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Homeomorphisms &amp; Examples
+READINGS, CASES, ETC.: Ch. II Sec. (4.9, 4.10)</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Mid-Semester Examination</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Topological Equivalence
+READINGS, CASES, ETC.: Ch. II Sec. (4.11)
+ACTIVITIES: Workheet 3</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Subspaces
+TOPIC &amp; SUBTOPIC DETAILS: Subsets &amp; Subspaces
+READINGS, CASES, ETC.: Ch. II Sec. (5.1,5.2)</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Relative Neighbourhoods
+READINGS, CASES, ETC.: Ch. II Sec. (5.3)</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Social Choice &amp; Discrete Decomposition of spaces
+READINGS, CASES, ETC.: Ch. II Sec. (5.6, 5.7)</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Cells
+READINGS, CASES, ETC.: Ch. III Sec. (5.8)
+ACTIVITIES: Worksheet 4</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Simplicial Complexes
+TOPIC &amp; SUBTOPIC DETAILS: Graphs
+READINGS, CASES, ETC.: Ch. III Sec. (4.1,4.2)</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Realization and Refinement
+READINGS, CASES, ETC.: Ch. III Sec. (4.3,4.4)</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: Partially Ordered Sets
+READINGS, CASES, ETC.: Ch. III Sec. (4.5)</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS:Data Clouds
+READINGS, CASES, ETC.: Ch. III Sec. (4.6)
+ACTIVITIES: Worksheet 5</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Social Choice
+READINGS, CASES, ETC.: Ch. III Sec. (4.7)</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Topology
+TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Topology and the Universe
+READINGS, CASES, ETC.: Ch. I Sec. (1.1,1.2,1.3)</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Topology
+TOPIC &amp; SUBTOPIC DETAILS: APPLICATIONS: Patterns in Data, Social Choice
+READINGS, CASES, ETC.: Ch. 1 Sec. (1.4,1.5)</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Review and Reflection</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: Review and Reflection</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>TOPIC TITLE: End-Semester Examination</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
